--- a/document/interface/接口说明.xlsx
+++ b/document/interface/接口说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>BookManage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,13 +94,6 @@
   </si>
   <si>
     <t>addHeat</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BookList</t>
@@ -221,6 +214,71 @@
   </si>
   <si>
     <t>返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int errorCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值若为-1，则表示获取结果失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值若为"-1"，则表示获取结果失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHasBorrowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int errorCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,21 +406,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -364,16 +477,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,335 +837,395 @@
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D34" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
+  <mergeCells count="30">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -1027,6 +1233,20 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/interface/接口说明.xlsx
+++ b/document/interface/接口说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>BookManage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,19 +262,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值若为"-1"，则表示获取结果失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getHasBorrowed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int errorCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,30 +473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +485,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,6 +495,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,76 +849,76 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -937,291 +933,293 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="13"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="13"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="13"/>
+      <c r="D39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A28:A36"/>
     <mergeCell ref="D34:D36"/>
@@ -1238,15 +1236,11 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
